--- a/Code/Results/Cases/Case_9_33/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_33/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.020035234097605</v>
+        <v>0.9770699545713342</v>
       </c>
       <c r="C2">
-        <v>0.1872063189961466</v>
+        <v>0.2410124198589756</v>
       </c>
       <c r="D2">
-        <v>0.04623736179653548</v>
+        <v>0.04892518874405738</v>
       </c>
       <c r="E2">
-        <v>1.26535701636017</v>
+        <v>1.269290249402943</v>
       </c>
       <c r="F2">
-        <v>1.224562547321128</v>
+        <v>0.9754755850432417</v>
       </c>
       <c r="G2">
-        <v>1.199423188529337</v>
+        <v>0.896795234299077</v>
       </c>
       <c r="H2">
-        <v>0.002509633162895319</v>
+        <v>0.002826124872351787</v>
       </c>
       <c r="I2">
-        <v>0.002886741080573962</v>
+        <v>0.001857747749347993</v>
       </c>
       <c r="J2">
-        <v>0.7719629887417199</v>
+        <v>0.6524833037512394</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2752506254722462</v>
       </c>
       <c r="M2">
-        <v>1.100422095535407</v>
+        <v>0.1892496734317319</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.166445028064658</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8867586510058061</v>
+        <v>0.8524102347076621</v>
       </c>
       <c r="C3">
-        <v>0.1659805719305893</v>
+        <v>0.2082430886347595</v>
       </c>
       <c r="D3">
-        <v>0.04489695117555215</v>
+        <v>0.04623450942126794</v>
       </c>
       <c r="E3">
-        <v>1.097540730725029</v>
+        <v>1.102027785938958</v>
       </c>
       <c r="F3">
-        <v>1.12710805195637</v>
+        <v>0.9120234495567416</v>
       </c>
       <c r="G3">
-        <v>1.103979462034417</v>
+        <v>0.8422794504914179</v>
       </c>
       <c r="H3">
-        <v>0.001088552089373529</v>
+        <v>0.001361153596578513</v>
       </c>
       <c r="I3">
-        <v>0.004853192520696048</v>
+        <v>0.003106018723288972</v>
       </c>
       <c r="J3">
-        <v>0.730755674236562</v>
+        <v>0.6257109335336111</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2747039346774258</v>
       </c>
       <c r="M3">
-        <v>0.9578167115355427</v>
+        <v>0.1765280281185113</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.014098081530875</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8048679123678255</v>
+        <v>0.7756374364210785</v>
       </c>
       <c r="C4">
-        <v>0.1531779026149422</v>
+        <v>0.1885257223035524</v>
       </c>
       <c r="D4">
-        <v>0.04403731323406213</v>
+        <v>0.04457862187139838</v>
       </c>
       <c r="E4">
-        <v>0.994960368545037</v>
+        <v>0.9996799741125102</v>
       </c>
       <c r="F4">
-        <v>1.067469361012741</v>
+        <v>0.8730503845065414</v>
       </c>
       <c r="G4">
-        <v>1.045395335160563</v>
+        <v>0.8088208447123009</v>
       </c>
       <c r="H4">
-        <v>0.000490215349178591</v>
+        <v>0.0007056174440087659</v>
       </c>
       <c r="I4">
-        <v>0.006429848038733255</v>
+        <v>0.00415161333247438</v>
       </c>
       <c r="J4">
-        <v>0.7055120686133733</v>
+        <v>0.6090178316898687</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2740911776383896</v>
       </c>
       <c r="M4">
-        <v>0.8705878194926981</v>
+        <v>0.1693340035698121</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9208623059818422</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7710588624036347</v>
+        <v>0.7439333377174648</v>
       </c>
       <c r="C5">
-        <v>0.1484799332639852</v>
+        <v>0.181100819382749</v>
       </c>
       <c r="D5">
-        <v>0.04369993553588181</v>
+        <v>0.04395146916166226</v>
       </c>
       <c r="E5">
-        <v>0.953235106548334</v>
+        <v>0.9580270252504306</v>
       </c>
       <c r="F5">
-        <v>1.041224741708632</v>
+        <v>0.8556283568264433</v>
       </c>
       <c r="G5">
-        <v>1.019239671544497</v>
+        <v>0.7934746738455232</v>
       </c>
       <c r="H5">
-        <v>0.0003101875997981729</v>
+        <v>0.0004951775481925047</v>
       </c>
       <c r="I5">
-        <v>0.007243623541122624</v>
+        <v>0.0047373135205655</v>
       </c>
       <c r="J5">
-        <v>0.6940694987691245</v>
+        <v>0.6012448566666251</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2732298120727172</v>
       </c>
       <c r="M5">
-        <v>0.835578118800214</v>
+        <v>0.1661677580416487</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8833525426092024</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7649367774165512</v>
+        <v>0.7382313335083097</v>
       </c>
       <c r="C6">
-        <v>0.1482770534137074</v>
+        <v>0.1805069941165556</v>
       </c>
       <c r="D6">
-        <v>0.04367111818829805</v>
+        <v>0.04390759100281727</v>
       </c>
       <c r="E6">
-        <v>0.9462921306625702</v>
+        <v>0.9510968365071335</v>
       </c>
       <c r="F6">
-        <v>1.034453169336089</v>
+        <v>0.8508696845995019</v>
       </c>
       <c r="G6">
-        <v>1.012119028894119</v>
+        <v>0.78884644139697</v>
       </c>
       <c r="H6">
-        <v>0.0002834174167292147</v>
+        <v>0.0004628902630745557</v>
       </c>
       <c r="I6">
-        <v>0.007493135794916839</v>
+        <v>0.004961039515070986</v>
       </c>
       <c r="J6">
-        <v>0.6907479620855241</v>
+        <v>0.5988456871739487</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2724226186135503</v>
       </c>
       <c r="M6">
-        <v>0.8303430922339885</v>
+        <v>0.1651776781182726</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8776430695372994</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8030224746829617</v>
+        <v>0.7741374006114086</v>
       </c>
       <c r="C7">
-        <v>0.1546849256307041</v>
+        <v>0.1899226480379355</v>
       </c>
       <c r="D7">
-        <v>0.04410919773619248</v>
+        <v>0.04483702558511737</v>
       </c>
       <c r="E7">
-        <v>0.9943420767903035</v>
+        <v>0.999036598792955</v>
       </c>
       <c r="F7">
-        <v>1.060508307589174</v>
+        <v>0.8648576518587916</v>
       </c>
       <c r="G7">
-        <v>1.037445797602061</v>
+        <v>0.8055074284096548</v>
       </c>
       <c r="H7">
-        <v>0.000485189288041088</v>
+        <v>0.0006986084598286091</v>
       </c>
       <c r="I7">
-        <v>0.006720485079721783</v>
+        <v>0.004480995758321171</v>
       </c>
       <c r="J7">
-        <v>0.7014714305523171</v>
+        <v>0.5981519720743762</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.271513023674931</v>
       </c>
       <c r="M7">
-        <v>0.8716879896549585</v>
+        <v>0.1673732953401448</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9215396034572336</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9722209647717932</v>
+        <v>0.9329242602863133</v>
       </c>
       <c r="C8">
-        <v>0.1819347607523838</v>
+        <v>0.2311543487998335</v>
       </c>
       <c r="D8">
-        <v>0.04588906800598735</v>
+        <v>0.04858531414980405</v>
       </c>
       <c r="E8">
-        <v>1.207302568596631</v>
+        <v>1.21134638589804</v>
       </c>
       <c r="F8">
-        <v>1.182137996004656</v>
+        <v>0.9374284420205328</v>
       </c>
       <c r="G8">
-        <v>1.156411442022446</v>
+        <v>0.8791487580919863</v>
       </c>
       <c r="H8">
-        <v>0.001953933707805611</v>
+        <v>0.002253759850350034</v>
       </c>
       <c r="I8">
-        <v>0.003813143244648209</v>
+        <v>0.002617115348799715</v>
       </c>
       <c r="J8">
-        <v>0.7525926304156201</v>
+        <v>0.6139737402605334</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2704600038295766</v>
       </c>
       <c r="M8">
-        <v>1.053268190821399</v>
+        <v>0.1807907076461568</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.114957159649322</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.306567915138373</v>
+        <v>1.244521844678019</v>
       </c>
       <c r="C9">
-        <v>0.2346292602995419</v>
+        <v>0.3132327797985681</v>
       </c>
       <c r="D9">
-        <v>0.04894272624942886</v>
+        <v>0.0552247432267805</v>
       </c>
       <c r="E9">
-        <v>1.629766688324779</v>
+        <v>1.631639599926984</v>
       </c>
       <c r="F9">
-        <v>1.434835194678428</v>
+        <v>1.099578976096538</v>
       </c>
       <c r="G9">
-        <v>1.404211485831951</v>
+        <v>1.025018235059861</v>
       </c>
       <c r="H9">
-        <v>0.007238844122016808</v>
+        <v>0.007444532045239927</v>
       </c>
       <c r="I9">
-        <v>0.0008682158384152316</v>
+        <v>0.0008498393640916646</v>
       </c>
       <c r="J9">
-        <v>0.8605744391352346</v>
+        <v>0.6760038016708592</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2720160369631159</v>
       </c>
       <c r="M9">
-        <v>1.409902044164511</v>
+        <v>0.2168073310608492</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.495587183017648</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.551690407257894</v>
+        <v>1.473828174721319</v>
       </c>
       <c r="C10">
-        <v>0.2751482731002994</v>
+        <v>0.3731519044586946</v>
       </c>
       <c r="D10">
-        <v>0.0516536082766379</v>
+        <v>0.06206003560882323</v>
       </c>
       <c r="E10">
-        <v>1.845336538278872</v>
+        <v>1.844708031736928</v>
       </c>
       <c r="F10">
-        <v>1.586955749472523</v>
+        <v>1.17805738903678</v>
       </c>
       <c r="G10">
-        <v>1.546432846336558</v>
+        <v>1.120562207942783</v>
       </c>
       <c r="H10">
-        <v>0.01245457406187045</v>
+        <v>0.0123743108577381</v>
       </c>
       <c r="I10">
-        <v>0.001084761539210888</v>
+        <v>0.001371209242472915</v>
       </c>
       <c r="J10">
-        <v>0.9200917892691223</v>
+        <v>0.6640032896452084</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.26248028284828</v>
       </c>
       <c r="M10">
-        <v>1.674876210943211</v>
+        <v>0.236035852593929</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.774911295321033</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.656555972579383</v>
+        <v>1.584230053446646</v>
       </c>
       <c r="C11">
-        <v>0.291121460668549</v>
+        <v>0.380330560111986</v>
       </c>
       <c r="D11">
-        <v>0.0609842229566766</v>
+        <v>0.07939252001455088</v>
       </c>
       <c r="E11">
-        <v>1.178624861562156</v>
+        <v>1.177684781742784</v>
       </c>
       <c r="F11">
-        <v>1.373360174324631</v>
+        <v>0.9917456817483838</v>
       </c>
       <c r="G11">
-        <v>1.289534183369341</v>
+        <v>0.9660603341620373</v>
       </c>
       <c r="H11">
-        <v>0.02893154469468939</v>
+        <v>0.0287894262490056</v>
       </c>
       <c r="I11">
-        <v>0.001790448207596107</v>
+        <v>0.002174428706624099</v>
       </c>
       <c r="J11">
-        <v>0.7857125124124877</v>
+        <v>0.4968416875713615</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2112314504189143</v>
       </c>
       <c r="M11">
-        <v>1.790200997260456</v>
+        <v>0.1904556832009874</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.881438268062453</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.695934111900954</v>
+        <v>1.631220488006647</v>
       </c>
       <c r="C12">
-        <v>0.2939147429475497</v>
+        <v>0.3719130205307124</v>
       </c>
       <c r="D12">
-        <v>0.07148466188994007</v>
+        <v>0.09463341486380017</v>
       </c>
       <c r="E12">
-        <v>0.700353601247798</v>
+        <v>0.6996971296559735</v>
       </c>
       <c r="F12">
-        <v>1.184581473028857</v>
+        <v>0.8467559471920367</v>
       </c>
       <c r="G12">
-        <v>1.074350559499763</v>
+        <v>0.8248722984170627</v>
       </c>
       <c r="H12">
-        <v>0.06576317061908554</v>
+        <v>0.06564369115024249</v>
       </c>
       <c r="I12">
-        <v>0.001782118720870862</v>
+        <v>0.002165527033595183</v>
       </c>
       <c r="J12">
-        <v>0.6750577654293437</v>
+        <v>0.4038537628081968</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1791385130171825</v>
       </c>
       <c r="M12">
-        <v>1.829530121640232</v>
+        <v>0.1562959109287263</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.910986609215996</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.684601088271762</v>
+        <v>1.629452407973218</v>
       </c>
       <c r="C13">
-        <v>0.289240633009527</v>
+        <v>0.3546091108969165</v>
       </c>
       <c r="D13">
-        <v>0.08337298408703475</v>
+        <v>0.1079343223843949</v>
       </c>
       <c r="E13">
-        <v>0.3400383592139633</v>
+        <v>0.3398568021968487</v>
       </c>
       <c r="F13">
-        <v>0.994046182332994</v>
+        <v>0.7199773110265468</v>
       </c>
       <c r="G13">
-        <v>0.8673393986149591</v>
+        <v>0.6738259716130131</v>
       </c>
       <c r="H13">
-        <v>0.1197047973087138</v>
+        <v>0.1196629445985877</v>
       </c>
       <c r="I13">
-        <v>0.00158062603507414</v>
+        <v>0.001965870753020127</v>
       </c>
       <c r="J13">
-        <v>0.5702779987371827</v>
+        <v>0.3556398862618053</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1564147125785347</v>
       </c>
       <c r="M13">
-        <v>1.814814804154935</v>
+        <v>0.1275826758942316</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.885634725512006</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.65337424775268</v>
+        <v>1.605797058229797</v>
       </c>
       <c r="C14">
-        <v>0.2832134373909696</v>
+        <v>0.3391523222515502</v>
       </c>
       <c r="D14">
-        <v>0.09270439813739273</v>
+        <v>0.1163625215986741</v>
       </c>
       <c r="E14">
-        <v>0.1595821438030214</v>
+        <v>0.1596654723853774</v>
       </c>
       <c r="F14">
-        <v>0.8611521593767577</v>
+        <v>0.6379727566970814</v>
       </c>
       <c r="G14">
-        <v>0.7281478524929241</v>
+        <v>0.5668915359341753</v>
       </c>
       <c r="H14">
-        <v>0.1678918000190492</v>
+        <v>0.1679158599162633</v>
       </c>
       <c r="I14">
-        <v>0.00148500481702829</v>
+        <v>0.001868939599722452</v>
       </c>
       <c r="J14">
-        <v>0.5004381148808363</v>
+        <v>0.3364129242319152</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1439175087060782</v>
       </c>
       <c r="M14">
-        <v>1.780744431364297</v>
+        <v>0.1098620988146592</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.843641742494952</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.634320048510602</v>
+        <v>1.589042734953722</v>
       </c>
       <c r="C15">
-        <v>0.2807847635468619</v>
+        <v>0.3341347863593001</v>
       </c>
       <c r="D15">
-        <v>0.09497323123824231</v>
+        <v>0.1177371500954578</v>
       </c>
       <c r="E15">
-        <v>0.1245533941917714</v>
+        <v>0.1247137903170383</v>
       </c>
       <c r="F15">
-        <v>0.8251700995474636</v>
+        <v>0.6182103782320141</v>
       </c>
       <c r="G15">
-        <v>0.6918359715009785</v>
+        <v>0.5372554983722324</v>
       </c>
       <c r="H15">
-        <v>0.1800144080955164</v>
+        <v>0.1800635889434403</v>
       </c>
       <c r="I15">
-        <v>0.001557114050225294</v>
+        <v>0.001953405333198432</v>
       </c>
       <c r="J15">
-        <v>0.4826296082744364</v>
+        <v>0.3363968821998</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1415805873555485</v>
       </c>
       <c r="M15">
-        <v>1.761534684529948</v>
+        <v>0.1057354568502582</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.822266985485811</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.530109770404096</v>
+        <v>1.48842568826052</v>
       </c>
       <c r="C16">
-        <v>0.26540031167454</v>
+        <v>0.3156845444254373</v>
       </c>
       <c r="D16">
-        <v>0.09100076304915206</v>
+        <v>0.1087495811349726</v>
       </c>
       <c r="E16">
-        <v>0.1210418691995301</v>
+        <v>0.1215317198811405</v>
       </c>
       <c r="F16">
-        <v>0.7993085359440357</v>
+        <v>0.6256489241010144</v>
       </c>
       <c r="G16">
-        <v>0.6738931580596557</v>
+        <v>0.5103732818060536</v>
       </c>
       <c r="H16">
-        <v>0.165853288291828</v>
+        <v>0.1659887628951537</v>
       </c>
       <c r="I16">
-        <v>0.001604152562719285</v>
+        <v>0.00191565294345164</v>
       </c>
       <c r="J16">
-        <v>0.4783618361240372</v>
+        <v>0.3829290449101279</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1493300429166915</v>
       </c>
       <c r="M16">
-        <v>1.651375227322092</v>
+        <v>0.1081917186735062</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.710488294690293</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.466863949698421</v>
+        <v>1.424153544200408</v>
       </c>
       <c r="C17">
-        <v>0.2568423626859584</v>
+        <v>0.3093827186402223</v>
       </c>
       <c r="D17">
-        <v>0.08281752257900621</v>
+        <v>0.09813044349854039</v>
       </c>
       <c r="E17">
-        <v>0.2003777940822076</v>
+        <v>0.2011394710489753</v>
       </c>
       <c r="F17">
-        <v>0.8479824935326974</v>
+        <v>0.672595979887447</v>
       </c>
       <c r="G17">
-        <v>0.7312417200164987</v>
+        <v>0.5459495788110615</v>
       </c>
       <c r="H17">
-        <v>0.1275283310022957</v>
+        <v>0.1276949721244449</v>
       </c>
       <c r="I17">
-        <v>0.001744194175267388</v>
+        <v>0.001983865633270909</v>
       </c>
       <c r="J17">
-        <v>0.5109357542215349</v>
+        <v>0.4286148913659531</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1623394762214758</v>
       </c>
       <c r="M17">
-        <v>1.585186375396745</v>
+        <v>0.1186324747514504</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.646850198731755</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.432822827187891</v>
+        <v>1.384683215768888</v>
       </c>
       <c r="C18">
-        <v>0.2519034155183988</v>
+        <v>0.3119531353627565</v>
       </c>
       <c r="D18">
-        <v>0.07127831895017778</v>
+        <v>0.08500567124624325</v>
       </c>
       <c r="E18">
-        <v>0.4221469174530128</v>
+        <v>0.4232175082123177</v>
       </c>
       <c r="F18">
-        <v>0.9774114240339884</v>
+        <v>0.7715485634467001</v>
       </c>
       <c r="G18">
-        <v>0.8744579419592782</v>
+        <v>0.6444260529681287</v>
       </c>
       <c r="H18">
-        <v>0.07505139020251761</v>
+        <v>0.07522917922080552</v>
       </c>
       <c r="I18">
-        <v>0.001549031324322492</v>
+        <v>0.001723897473155489</v>
       </c>
       <c r="J18">
-        <v>0.5859979873381747</v>
+        <v>0.4922290567815111</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1849331006598476</v>
       </c>
       <c r="M18">
-        <v>1.547856760210095</v>
+        <v>0.1404402853954956</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.616539374741734</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.422162349989293</v>
+        <v>1.365797960857776</v>
       </c>
       <c r="C19">
-        <v>0.2538467928034436</v>
+        <v>0.3254896585561937</v>
       </c>
       <c r="D19">
-        <v>0.060693286969979</v>
+        <v>0.0727121644351314</v>
       </c>
       <c r="E19">
-        <v>0.8387955719960871</v>
+        <v>0.8400627441229886</v>
       </c>
       <c r="F19">
-        <v>1.164358257891223</v>
+        <v>0.9069988590441938</v>
       </c>
       <c r="G19">
-        <v>1.082241686211319</v>
+        <v>0.7877855633744701</v>
       </c>
       <c r="H19">
-        <v>0.03134086712420014</v>
+        <v>0.03151379194218151</v>
       </c>
       <c r="I19">
-        <v>0.001609880647817086</v>
+        <v>0.001854873201148521</v>
       </c>
       <c r="J19">
-        <v>0.6921269278212776</v>
+        <v>0.5700710488328582</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2144921455770152</v>
       </c>
       <c r="M19">
-        <v>1.540036009139158</v>
+        <v>0.1708119908813224</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.618534903300429</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.482685035892445</v>
+        <v>1.40940452258053</v>
       </c>
       <c r="C20">
-        <v>0.2694695222707679</v>
+        <v>0.3638662205553089</v>
       </c>
       <c r="D20">
-        <v>0.05128814951279992</v>
+        <v>0.06050915649104383</v>
       </c>
       <c r="E20">
-        <v>1.784136193274207</v>
+        <v>1.784408700993197</v>
       </c>
       <c r="F20">
-        <v>1.524861813030839</v>
+        <v>1.151140737051378</v>
       </c>
       <c r="G20">
-        <v>1.483744012208689</v>
+        <v>1.067513354181472</v>
       </c>
       <c r="H20">
-        <v>0.01089852418040671</v>
+        <v>0.01093216482904769</v>
       </c>
       <c r="I20">
-        <v>0.001636538160106227</v>
+        <v>0.002046254739109798</v>
       </c>
       <c r="J20">
-        <v>0.8916014352893455</v>
+        <v>0.6841025164170702</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2626940835157328</v>
       </c>
       <c r="M20">
-        <v>1.61002325885849</v>
+        <v>0.2283761032726446</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.706666534116692</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.672985544796262</v>
+        <v>1.587213466933349</v>
       </c>
       <c r="C21">
-        <v>0.3012147094104307</v>
+        <v>0.4084232359004432</v>
       </c>
       <c r="D21">
-        <v>0.0523112909815957</v>
+        <v>0.06644297425091139</v>
       </c>
       <c r="E21">
-        <v>2.104859824242254</v>
+        <v>2.101891824456942</v>
       </c>
       <c r="F21">
-        <v>1.697604978284744</v>
+        <v>1.197728826535084</v>
       </c>
       <c r="G21">
-        <v>1.656718118414375</v>
+        <v>1.237307948852447</v>
       </c>
       <c r="H21">
-        <v>0.01625495424504209</v>
+        <v>0.01585960316254953</v>
       </c>
       <c r="I21">
-        <v>0.002473583002406521</v>
+        <v>0.002829945076434193</v>
       </c>
       <c r="J21">
-        <v>0.9693457982323253</v>
+        <v>0.5677754838601601</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2527909296162107</v>
       </c>
       <c r="M21">
-        <v>1.815258479821722</v>
+        <v>0.2403633212459582</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.920319555314904</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.799395024111504</v>
+        <v>1.70575250674159</v>
       </c>
       <c r="C22">
-        <v>0.3199251589132359</v>
+        <v>0.434043351649251</v>
       </c>
       <c r="D22">
-        <v>0.05313899597533123</v>
+        <v>0.07103173711381316</v>
       </c>
       <c r="E22">
-        <v>2.265510677358975</v>
+        <v>2.260159804144166</v>
       </c>
       <c r="F22">
-        <v>1.803431877976735</v>
+        <v>1.218904613915612</v>
       </c>
       <c r="G22">
-        <v>1.761370348232163</v>
+        <v>1.350145715851255</v>
       </c>
       <c r="H22">
-        <v>0.01997700555729121</v>
+        <v>0.0192335351774684</v>
       </c>
       <c r="I22">
-        <v>0.003254096325759903</v>
+        <v>0.003326317834165593</v>
       </c>
       <c r="J22">
-        <v>1.016002725457071</v>
+        <v>0.4904434526438735</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2448372081599146</v>
       </c>
       <c r="M22">
-        <v>1.947766127872967</v>
+        <v>0.2465375198037876</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.057220276926898</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.733626906100795</v>
+        <v>1.643615193418441</v>
       </c>
       <c r="C23">
-        <v>0.307949478204975</v>
+        <v>0.4188038886982781</v>
       </c>
       <c r="D23">
-        <v>0.0525866055938593</v>
+        <v>0.06790098989773696</v>
       </c>
       <c r="E23">
-        <v>2.179737021543446</v>
+        <v>2.175760964959139</v>
       </c>
       <c r="F23">
-        <v>1.754732115464535</v>
+        <v>1.220500899834974</v>
       </c>
       <c r="G23">
-        <v>1.714495714104231</v>
+        <v>1.288768919256029</v>
       </c>
       <c r="H23">
-        <v>0.01796281710695902</v>
+        <v>0.01742209553994289</v>
       </c>
       <c r="I23">
-        <v>0.002501981858856084</v>
+        <v>0.002684730041031536</v>
       </c>
       <c r="J23">
-        <v>0.995646324268904</v>
+        <v>0.5491316445632179</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2520752982505243</v>
       </c>
       <c r="M23">
-        <v>1.875049692976461</v>
+        <v>0.2468354873718752</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.983009714518062</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.482643234968947</v>
+        <v>1.408162649432398</v>
       </c>
       <c r="C24">
-        <v>0.2665094544397277</v>
+        <v>0.3616441173252838</v>
       </c>
       <c r="D24">
-        <v>0.05060491166256753</v>
+        <v>0.05917236962145367</v>
       </c>
       <c r="E24">
-        <v>1.857501805299577</v>
+        <v>1.857701277443468</v>
       </c>
       <c r="F24">
-        <v>1.559833963098427</v>
+        <v>1.176852987318753</v>
       </c>
       <c r="G24">
-        <v>1.52431017693533</v>
+        <v>1.095585170394429</v>
       </c>
       <c r="H24">
-        <v>0.01118743482577944</v>
+        <v>0.01121187268202753</v>
       </c>
       <c r="I24">
-        <v>0.00115836587846907</v>
+        <v>0.001471293659539796</v>
       </c>
       <c r="J24">
-        <v>0.9121630048047109</v>
+        <v>0.6998899678476391</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2693339520245885</v>
       </c>
       <c r="M24">
-        <v>1.604580486567272</v>
+        <v>0.2351944329732518</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.702427702366009</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.21344603306207</v>
+        <v>1.157973258586338</v>
       </c>
       <c r="C25">
-        <v>0.223027552376351</v>
+        <v>0.2942610878537835</v>
       </c>
       <c r="D25">
-        <v>0.0483063496201197</v>
+        <v>0.05362096631515456</v>
       </c>
       <c r="E25">
-        <v>1.514680538784106</v>
+        <v>1.517344949650777</v>
       </c>
       <c r="F25">
-        <v>1.354107430149469</v>
+        <v>1.050624474404927</v>
       </c>
       <c r="G25">
-        <v>1.323165164267579</v>
+        <v>0.9715326753986773</v>
       </c>
       <c r="H25">
-        <v>0.005507317804056</v>
+        <v>0.005779018155034676</v>
       </c>
       <c r="I25">
-        <v>0.001733290307000424</v>
+        <v>0.001564843759188861</v>
       </c>
       <c r="J25">
-        <v>0.8242106174013202</v>
+        <v>0.6650111607299891</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2700831311449861</v>
       </c>
       <c r="M25">
-        <v>1.31583095948298</v>
+        <v>0.2048095096740035</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.395135146604417</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
